--- a/meetings_dumped/ferreira_cabinet.xlsx
+++ b/meetings_dumped/ferreira_cabinet.xlsx
@@ -91,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="537">
+  <cellXfs count="547">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -106,6 +106,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
@@ -2074,7 +2104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J107"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2128,1867 +2158,1921 @@
       <c r="J1" s="1" t="n"/>
     </row>
     <row r="2" ht="43.15" customHeight="1">
-      <c r="A2" s="536" t="inlineStr">
+      <c r="A2" s="546" t="inlineStr">
+        <is>
+          <t>Pedro MOIA, Simeona Manova</t>
+        </is>
+      </c>
+      <c r="B2" s="543" t="inlineStr">
+        <is>
+          <t>24/04/2023</t>
+        </is>
+      </c>
+      <c r="C2" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D2" s="546" t="inlineStr">
+        <is>
+          <t>Energy Cities</t>
+        </is>
+      </c>
+      <c r="E2" s="546" t="inlineStr">
+        <is>
+          <t>Future of urban policies and sustainability transitions at local level.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="546" t="inlineStr">
+        <is>
+          <t>Wioletta Dunin-Majewska, Francisco Barros Castro</t>
+        </is>
+      </c>
+      <c r="B3" s="543" t="inlineStr">
+        <is>
+          <t>20/04/2023</t>
+        </is>
+      </c>
+      <c r="C3" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D3" s="546" t="inlineStr">
+        <is>
+          <t>industriAll European Trade Union</t>
+        </is>
+      </c>
+      <c r="E3" s="546" t="inlineStr">
+        <is>
+          <t>Methane Directive and consequences of emissions’ limits for the closures or PL mines and the carrying out of JTF territorial plans.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="546" t="inlineStr">
         <is>
           <t>Francisco Barros Castro</t>
         </is>
       </c>
-      <c r="B2" s="533" t="inlineStr">
+      <c r="B4" s="543" t="inlineStr">
         <is>
           <t>29/03/2023</t>
         </is>
       </c>
-      <c r="C2" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D2" s="536" t="inlineStr">
+      <c r="C4" s="546" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="D4" s="546" t="inlineStr">
+        <is>
+          <t>BPCE</t>
+        </is>
+      </c>
+      <c r="E4" s="546" t="inlineStr">
+        <is>
+          <t>Presentation of BPCE group and its activities across France</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="546" t="inlineStr">
+        <is>
+          <t>Francisco Barros Castro</t>
+        </is>
+      </c>
+      <c r="B5" s="543" t="inlineStr">
+        <is>
+          <t>29/03/2023</t>
+        </is>
+      </c>
+      <c r="C5" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D5" s="546" t="inlineStr">
         <is>
           <t>Confederazione Generale Italiana del Lavoro</t>
         </is>
       </c>
-      <c r="E2" s="536" t="inlineStr">
+      <c r="E5" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting with a CGIL delegation to discuss the role of social partners in EU Cohesion Policy </t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="536" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="546" t="inlineStr">
+        <is>
+          <t>Simeona Manova</t>
+        </is>
+      </c>
+      <c r="B6" s="543" t="inlineStr">
+        <is>
+          <t>16/02/2023</t>
+        </is>
+      </c>
+      <c r="C6" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D6" s="546" t="inlineStr">
+        <is>
+          <t>EuropaBio</t>
+        </is>
+      </c>
+      <c r="E6" s="546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Presentation of a cross-sector Biomanufacturing Platform </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="546" t="inlineStr">
         <is>
           <t>Francisco Barros Castro</t>
         </is>
       </c>
-      <c r="B3" s="533" t="inlineStr">
-        <is>
-          <t>29/03/2023</t>
-        </is>
-      </c>
-      <c r="C3" s="536" t="inlineStr">
+      <c r="B7" s="543" t="inlineStr">
+        <is>
+          <t>09/02/2023</t>
+        </is>
+      </c>
+      <c r="C7" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D7" s="546" t="inlineStr">
+        <is>
+          <t>NOS</t>
+        </is>
+      </c>
+      <c r="E7" s="546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Presentation of NOS position regarding the use of EU funds for connectivity and upcoming EU legislation </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="546" t="inlineStr">
+        <is>
+          <t>Pedro MOIA</t>
+        </is>
+      </c>
+      <c r="B8" s="543" t="inlineStr">
+        <is>
+          <t>09/02/2023</t>
+        </is>
+      </c>
+      <c r="C8" s="546" t="inlineStr">
+        <is>
+          <t>Brussels, Belgium</t>
+        </is>
+      </c>
+      <c r="D8" s="546" t="inlineStr">
+        <is>
+          <t>Plataforma Tecnológica Portuguesa da Construção</t>
+        </is>
+      </c>
+      <c r="E8" s="546" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Presentation of PTPC &amp; BUILT CoLAB - construction sector</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="546" t="inlineStr">
+        <is>
+          <t>Francisco Barros Castro</t>
+        </is>
+      </c>
+      <c r="B9" s="543" t="inlineStr">
+        <is>
+          <t>13/12/2022</t>
+        </is>
+      </c>
+      <c r="C9" s="546" t="inlineStr">
         <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="D3" s="536" t="inlineStr">
-        <is>
-          <t>BPCE</t>
-        </is>
-      </c>
-      <c r="E3" s="536" t="inlineStr">
-        <is>
-          <t>Presentation of BPCE group and its activities across France</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="536" t="inlineStr">
+      <c r="D9" s="546" t="inlineStr">
+        <is>
+          <t>Associação Técnica da Indústria de Cimento</t>
+        </is>
+      </c>
+      <c r="E9" s="546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Presentation of the challenges to the Portuguese Cement industry in the context of the decarbonisation of the economy </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="546" t="inlineStr">
         <is>
           <t>Simeona Manova</t>
         </is>
       </c>
-      <c r="B4" s="533" t="inlineStr">
-        <is>
-          <t>16/02/2023</t>
-        </is>
-      </c>
-      <c r="C4" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D4" s="536" t="inlineStr">
-        <is>
-          <t>EuropaBio</t>
-        </is>
-      </c>
-      <c r="E4" s="536" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Presentation of a cross-sector Biomanufacturing Platform </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="536" t="inlineStr">
-        <is>
-          <t>Pedro MOIA</t>
-        </is>
-      </c>
-      <c r="B5" s="533" t="inlineStr">
-        <is>
-          <t>09/02/2023</t>
-        </is>
-      </c>
-      <c r="C5" s="536" t="inlineStr">
-        <is>
-          <t>Brussels, Belgium</t>
-        </is>
-      </c>
-      <c r="D5" s="536" t="inlineStr">
-        <is>
-          <t>Plataforma Tecnológica Portuguesa da Construção</t>
-        </is>
-      </c>
-      <c r="E5" s="536" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Presentation of PTPC &amp; BUILT CoLAB - construction sector</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="536" t="inlineStr">
+      <c r="B10" s="543" t="inlineStr">
+        <is>
+          <t>08/12/2022</t>
+        </is>
+      </c>
+      <c r="C10" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D10" s="546" t="inlineStr">
+        <is>
+          <t>Institute for Erasmus Peace Solutions</t>
+        </is>
+      </c>
+      <c r="E10" s="546" t="inlineStr">
+        <is>
+          <t>Present the outline of a NEB Partners Initiative for the creation and building of a 'NEB University'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="546" t="inlineStr">
+        <is>
+          <t>Wioletta Dunin-Majewska</t>
+        </is>
+      </c>
+      <c r="B11" s="543" t="inlineStr">
+        <is>
+          <t>06/12/2022</t>
+        </is>
+      </c>
+      <c r="C11" s="546" t="inlineStr">
+        <is>
+          <t>Online</t>
+        </is>
+      </c>
+      <c r="D11" s="546" t="inlineStr">
+        <is>
+          <t>Transport and Environment (European Federation for Transport and Environment)</t>
+        </is>
+      </c>
+      <c r="E11" s="546" t="inlineStr">
+        <is>
+          <t>Exchange of views on regional perspective on decarbonisation of heavy duty transport.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="546" t="inlineStr">
         <is>
           <t>Francisco Barros Castro</t>
         </is>
       </c>
-      <c r="B6" s="533" t="inlineStr">
-        <is>
-          <t>09/02/2023</t>
-        </is>
-      </c>
-      <c r="C6" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D6" s="536" t="inlineStr">
-        <is>
-          <t>NOS</t>
-        </is>
-      </c>
-      <c r="E6" s="536" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Presentation of NOS position regarding the use of EU funds for connectivity and upcoming EU legislation </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="536" t="inlineStr">
-        <is>
-          <t>Francisco Barros Castro</t>
-        </is>
-      </c>
-      <c r="B7" s="533" t="inlineStr">
-        <is>
-          <t>13/12/2022</t>
-        </is>
-      </c>
-      <c r="C7" s="536" t="inlineStr">
-        <is>
-          <t>Online</t>
-        </is>
-      </c>
-      <c r="D7" s="536" t="inlineStr">
-        <is>
-          <t>Associação Técnica da Indústria de Cimento</t>
-        </is>
-      </c>
-      <c r="E7" s="536" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Presentation of the challenges to the Portuguese Cement industry in the context of the decarbonisation of the economy </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="536" t="inlineStr">
-        <is>
-          <t>Simeona Manova</t>
-        </is>
-      </c>
-      <c r="B8" s="533" t="inlineStr">
-        <is>
-          <t>08/12/2022</t>
-        </is>
-      </c>
-      <c r="C8" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D8" s="536" t="inlineStr">
-        <is>
-          <t>Institute for Erasmus Peace Solutions</t>
-        </is>
-      </c>
-      <c r="E8" s="536" t="inlineStr">
-        <is>
-          <t>Present the outline of a NEB Partners Initiative for the creation and building of a 'NEB University'.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="536" t="inlineStr">
-        <is>
-          <t>Wioletta Dunin-Majewska</t>
-        </is>
-      </c>
-      <c r="B9" s="533" t="inlineStr">
-        <is>
-          <t>06/12/2022</t>
-        </is>
-      </c>
-      <c r="C9" s="536" t="inlineStr">
-        <is>
-          <t>Online</t>
-        </is>
-      </c>
-      <c r="D9" s="536" t="inlineStr">
-        <is>
-          <t>Transport and Environment (European Federation for Transport and Environment)</t>
-        </is>
-      </c>
-      <c r="E9" s="536" t="inlineStr">
-        <is>
-          <t>Exchange of views on regional perspective on decarbonisation of heavy duty transport.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="536" t="inlineStr">
-        <is>
-          <t>Francisco Barros Castro</t>
-        </is>
-      </c>
-      <c r="B10" s="533" t="inlineStr">
+      <c r="B12" s="543" t="inlineStr">
         <is>
           <t>01/12/2022</t>
         </is>
       </c>
-      <c r="C10" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D10" s="536" t="inlineStr">
+      <c r="C12" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D12" s="546" t="inlineStr">
         <is>
           <t>CEE Bankwatch Network</t>
         </is>
       </c>
-      <c r="E10" s="536" t="inlineStr">
+      <c r="E12" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">CEE Bankwatch shared information and views about the Just Transition process on the ground in Central and Eastern Europe.
 </t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="536" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="546" t="inlineStr">
         <is>
           <t>Pedro MOIA, Carole Mancel-Blanchard</t>
         </is>
       </c>
-      <c r="B11" s="533" t="inlineStr">
+      <c r="B13" s="543" t="inlineStr">
         <is>
           <t>29/11/2022</t>
         </is>
       </c>
-      <c r="C11" s="536" t="inlineStr">
+      <c r="C13" s="546" t="inlineStr">
         <is>
           <t>Brussels (Skype call)</t>
         </is>
       </c>
-      <c r="D11" s="536" t="inlineStr">
+      <c r="D13" s="546" t="inlineStr">
         <is>
           <t>Bio-based Industries Consortium</t>
         </is>
       </c>
-      <c r="E11" s="536" t="inlineStr">
+      <c r="E13" s="546" t="inlineStr">
         <is>
           <t>Synergies between the European Regional Development Fund and Horizon Europe.</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="536" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="546" t="inlineStr">
         <is>
           <t>Francisco Barros Castro</t>
         </is>
       </c>
-      <c r="B12" s="533" t="inlineStr">
+      <c r="B14" s="543" t="inlineStr">
         <is>
           <t>28/11/2022</t>
         </is>
       </c>
-      <c r="C12" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D12" s="536" t="inlineStr">
+      <c r="C14" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D14" s="546" t="inlineStr">
         <is>
           <t>Social Progress Imperative</t>
         </is>
       </c>
-      <c r="E12" s="536" t="inlineStr">
+      <c r="E14" s="546" t="inlineStr">
         <is>
           <t>Presentation of results of latest global index and projects for the future</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="536" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="546" t="inlineStr">
         <is>
           <t>Francisco Barros Castro</t>
         </is>
       </c>
-      <c r="B13" s="533" t="inlineStr">
+      <c r="B15" s="543" t="inlineStr">
         <is>
           <t>23/11/2022</t>
         </is>
       </c>
-      <c r="C13" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D13" s="536" t="inlineStr">
+      <c r="C15" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D15" s="546" t="inlineStr">
         <is>
           <t>Galp Energia, SGPS, SA, Aurora Lithium, EUPPORTUNITY (QB, Lda.)</t>
         </is>
       </c>
-      <c r="E13" s="536" t="inlineStr">
+      <c r="E15" s="546" t="inlineStr">
         <is>
           <t>Aurora Lithium with Galp presented their views of the future of lithium market in Europe and across the world and its refining projects in Portugal.</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="536" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="546" t="inlineStr">
         <is>
           <t>Francisco Barros Castro</t>
         </is>
       </c>
-      <c r="B14" s="533" t="inlineStr">
+      <c r="B16" s="543" t="inlineStr">
         <is>
           <t>03/11/2022</t>
         </is>
       </c>
-      <c r="C14" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D14" s="536" t="inlineStr">
+      <c r="C16" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D16" s="546" t="inlineStr">
         <is>
           <t>Airholding S.A.</t>
         </is>
       </c>
-      <c r="E14" s="536" t="inlineStr">
+      <c r="E16" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">Update on the activities of the Embraer Group in Portugal </t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="536" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="546" t="inlineStr">
         <is>
           <t>Francisco Barros Castro</t>
         </is>
       </c>
-      <c r="B15" s="533" t="inlineStr">
+      <c r="B17" s="543" t="inlineStr">
         <is>
           <t>17/10/2022</t>
         </is>
       </c>
-      <c r="C15" s="536" t="inlineStr">
+      <c r="C17" s="546" t="inlineStr">
         <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="D15" s="536" t="inlineStr">
+      <c r="D17" s="546" t="inlineStr">
         <is>
           <t>Movimento Cultural da Terra de Miranda</t>
         </is>
       </c>
-      <c r="E15" s="536" t="inlineStr">
+      <c r="E17" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> Presentation of de Strategic Plan for Miranda region</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="536" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="546" t="inlineStr">
         <is>
           <t>Wioletta Dunin-Majewska</t>
         </is>
       </c>
-      <c r="B16" s="533" t="inlineStr">
+      <c r="B18" s="543" t="inlineStr">
         <is>
           <t>12/10/2022</t>
         </is>
       </c>
-      <c r="C16" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D16" s="536" t="inlineStr">
+      <c r="C18" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D18" s="546" t="inlineStr">
         <is>
           <t>SOLAR IMPULSE FOUNDATION</t>
         </is>
       </c>
-      <c r="E16" s="536" t="inlineStr">
+      <c r="E18" s="546" t="inlineStr">
         <is>
           <t>Solutions for decarbonisation for municipalities and cities, identifying the missing links.</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="536" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="546" t="inlineStr">
         <is>
           <t>Wioletta Dunin-Majewska</t>
         </is>
       </c>
-      <c r="B17" s="533" t="inlineStr">
+      <c r="B19" s="543" t="inlineStr">
         <is>
           <t>05/10/2022</t>
         </is>
       </c>
-      <c r="C17" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D17" s="536" t="inlineStr">
+      <c r="C19" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D19" s="546" t="inlineStr">
         <is>
           <t>Ball Beverage Packaging Europe Limited</t>
         </is>
       </c>
-      <c r="E17" s="536" t="inlineStr">
+      <c r="E19" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">Circularity of packaging and cohesion policy support for sustainable recycling. </t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="536" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="546" t="inlineStr">
         <is>
           <t>Wioletta Dunin-Majewska</t>
         </is>
       </c>
-      <c r="B18" s="533" t="inlineStr">
+      <c r="B20" s="543" t="inlineStr">
         <is>
           <t>20/07/2022</t>
         </is>
       </c>
-      <c r="C18" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D18" s="536" t="inlineStr">
+      <c r="C20" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D20" s="546" t="inlineStr">
         <is>
           <t>Albioma</t>
         </is>
       </c>
-      <c r="E18" s="536" t="inlineStr">
+      <c r="E20" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> Energy transition in French outermost regions. </t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="536" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="546" t="inlineStr">
         <is>
           <t>Wioletta Dunin-Majewska</t>
         </is>
       </c>
-      <c r="B19" s="533" t="inlineStr">
+      <c r="B21" s="543" t="inlineStr">
         <is>
           <t>19/07/2022</t>
         </is>
       </c>
-      <c r="C19" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D19" s="536" t="inlineStr">
+      <c r="C21" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D21" s="546" t="inlineStr">
         <is>
           <t>ELECTRICITE DE FRANCE</t>
         </is>
       </c>
-      <c r="E19" s="536" t="inlineStr">
+      <c r="E21" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> Decarbonizing French Islands in outermost regions.</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="536" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="546" t="inlineStr">
         <is>
           <t>Francisco Barros Castro</t>
         </is>
       </c>
-      <c r="B20" s="533" t="inlineStr">
+      <c r="B22" s="543" t="inlineStr">
         <is>
           <t>13/07/2022</t>
         </is>
       </c>
-      <c r="C20" s="536" t="inlineStr">
+      <c r="C22" s="546" t="inlineStr">
         <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="D20" s="536" t="inlineStr">
+      <c r="D22" s="546" t="inlineStr">
         <is>
           <t>EUPPORTUNITY (QB, Lda.), Associação das Empresas Portuguesas para o Sector do Ambiente</t>
         </is>
       </c>
-      <c r="E20" s="536" t="inlineStr">
+      <c r="E22" s="546" t="inlineStr">
         <is>
           <t>Situation of water sector in Portugal</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="536" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="546" t="inlineStr">
         <is>
           <t>Francisco Barros Castro, Carole Mancel-Blanchard</t>
         </is>
       </c>
-      <c r="B21" s="533" t="inlineStr">
+      <c r="B23" s="543" t="inlineStr">
         <is>
           <t>13/06/2022</t>
         </is>
       </c>
-      <c r="C21" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D21" s="536" t="inlineStr">
+      <c r="C23" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D23" s="546" t="inlineStr">
         <is>
           <t>International Romani Union</t>
         </is>
       </c>
-      <c r="E21" s="536" t="inlineStr">
+      <c r="E23" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">Presentation of IRU's future plans and strategy. </t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="536" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="546" t="inlineStr">
         <is>
           <t>Simeona Manova</t>
         </is>
       </c>
-      <c r="B22" s="533" t="inlineStr">
+      <c r="B24" s="543" t="inlineStr">
         <is>
           <t>12/05/2022</t>
         </is>
       </c>
-      <c r="C22" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D22" s="536" t="inlineStr">
+      <c r="C24" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D24" s="546" t="inlineStr">
         <is>
           <t>Arup BV</t>
         </is>
       </c>
-      <c r="E22" s="536" t="inlineStr">
+      <c r="E24" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> New European Bauhaus  </t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="536" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="546" t="inlineStr">
         <is>
           <t>Wioletta Dunin-Majewska</t>
         </is>
       </c>
-      <c r="B23" s="533" t="inlineStr">
+      <c r="B25" s="543" t="inlineStr">
         <is>
           <t>12/05/2022</t>
         </is>
       </c>
-      <c r="C23" s="536" t="inlineStr">
+      <c r="C25" s="546" t="inlineStr">
         <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="D23" s="536" t="inlineStr">
+      <c r="D25" s="546" t="inlineStr">
         <is>
           <t>Buildings Performance Institute Europe, BPIE ASBL</t>
         </is>
       </c>
-      <c r="E23" s="536" t="inlineStr">
+      <c r="E25" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> Discussion on RE PowerEU Energy Savings Plan.</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="536" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="546" t="inlineStr">
         <is>
           <t>Wioletta Dunin-Majewska</t>
         </is>
       </c>
-      <c r="B24" s="533" t="inlineStr">
+      <c r="B26" s="543" t="inlineStr">
         <is>
           <t>10/05/2022</t>
         </is>
       </c>
-      <c r="C24" s="536" t="inlineStr">
+      <c r="C26" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">Online </t>
         </is>
       </c>
-      <c r="D24" s="536" t="inlineStr">
+      <c r="D26" s="546" t="inlineStr">
         <is>
           <t>The European Alliance of Companies for Energy Efficiency in Buildings</t>
         </is>
       </c>
-      <c r="E24" s="536" t="inlineStr">
+      <c r="E26" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> Discussion on energy efficiency measures. </t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="536" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="546" t="inlineStr">
         <is>
           <t>Wioletta Dunin-Majewska</t>
         </is>
       </c>
-      <c r="B25" s="533" t="inlineStr">
+      <c r="B27" s="543" t="inlineStr">
         <is>
           <t>25/04/2022</t>
         </is>
       </c>
-      <c r="C25" s="536" t="inlineStr">
+      <c r="C27" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">Online </t>
         </is>
       </c>
-      <c r="D25" s="536" t="inlineStr">
+      <c r="D27" s="546" t="inlineStr">
         <is>
           <t>UNIFE</t>
         </is>
       </c>
-      <c r="E25" s="536" t="inlineStr">
+      <c r="E27" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">Investment in rail in new programming period. </t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="536" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="546" t="inlineStr">
         <is>
           <t>Carole Mancel-Blanchard</t>
         </is>
       </c>
-      <c r="B26" s="533" t="inlineStr">
+      <c r="B28" s="543" t="inlineStr">
         <is>
           <t>04/04/2022</t>
         </is>
       </c>
-      <c r="C26" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D26" s="536" t="inlineStr">
+      <c r="C28" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D28" s="546" t="inlineStr">
         <is>
           <t>Fédération des élus des Entreprises Publiques Locales</t>
         </is>
       </c>
-      <c r="E26" s="536" t="inlineStr">
+      <c r="E28" s="546" t="inlineStr">
         <is>
           <t>Discussion sur les derniers développements de la Politique de Cohésion</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="536" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="546" t="inlineStr">
         <is>
           <t>Simeona Manova, Francisco Barros Castro</t>
         </is>
       </c>
-      <c r="B27" s="533" t="inlineStr">
+      <c r="B29" s="543" t="inlineStr">
         <is>
           <t>23/03/2022</t>
         </is>
       </c>
-      <c r="C27" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D27" s="536" t="inlineStr">
+      <c r="C29" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D29" s="546" t="inlineStr">
         <is>
           <t>Brunswick Group Advisory Limited, Savannah Resources PLC</t>
         </is>
       </c>
-      <c r="E27" s="536" t="inlineStr">
+      <c r="E29" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">Lithium policy </t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="536" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="546" t="inlineStr">
         <is>
           <t>Wioletta Dunin-Majewska</t>
         </is>
       </c>
-      <c r="B28" s="533" t="inlineStr">
+      <c r="B30" s="543" t="inlineStr">
         <is>
           <t>17/03/2022</t>
         </is>
       </c>
-      <c r="C28" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D28" s="536" t="inlineStr">
+      <c r="C30" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D30" s="546" t="inlineStr">
         <is>
           <t>PGE Polska Grupa Energetyczna SA</t>
         </is>
       </c>
-      <c r="E28" s="536" t="inlineStr">
+      <c r="E30" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> Fit for 55 package and Just Transition Fund </t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="536" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="546" t="inlineStr">
         <is>
           <t>Carole Mancel-Blanchard</t>
         </is>
       </c>
-      <c r="B29" s="533" t="inlineStr">
+      <c r="B31" s="543" t="inlineStr">
         <is>
           <t>11/03/2022</t>
         </is>
       </c>
-      <c r="C29" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D29" s="536" t="inlineStr">
+      <c r="C31" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D31" s="546" t="inlineStr">
         <is>
           <t>Conseil des Communes et Régions d'Europe</t>
         </is>
       </c>
-      <c r="E29" s="536" t="inlineStr">
+      <c r="E31" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> Discussion on support by local authorities to refugees</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="536" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="546" t="inlineStr">
         <is>
           <t>Simeona Manova</t>
         </is>
       </c>
-      <c r="B30" s="533" t="inlineStr">
+      <c r="B32" s="543" t="inlineStr">
         <is>
           <t>01/02/2022</t>
         </is>
       </c>
-      <c r="C30" s="536" t="inlineStr">
+      <c r="C32" s="546" t="inlineStr">
         <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="D30" s="536" t="inlineStr">
+      <c r="D32" s="546" t="inlineStr">
         <is>
           <t>Clean Clothes Campaign / Stichting Schone Kleren Kampagne</t>
         </is>
       </c>
-      <c r="E30" s="536" t="inlineStr">
+      <c r="E32" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sustainable corporate governance </t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="536" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="546" t="inlineStr">
         <is>
           <t>Wioletta Dunin-Majewska</t>
         </is>
       </c>
-      <c r="B31" s="533" t="inlineStr">
+      <c r="B33" s="543" t="inlineStr">
         <is>
           <t>28/01/2022</t>
         </is>
       </c>
-      <c r="C31" s="536" t="inlineStr">
+      <c r="C33" s="546" t="inlineStr">
         <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="D31" s="536" t="inlineStr">
+      <c r="D33" s="546" t="inlineStr">
         <is>
           <t>European Liaison Committee for Agriculture and agri-food trade, FoodDrinkEurope, European farmers</t>
         </is>
       </c>
-      <c r="E31" s="536" t="inlineStr">
+      <c r="E33" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> Revision of the promotion policy. </t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="536" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="546" t="inlineStr">
         <is>
           <t>Francisco Barros Castro</t>
         </is>
       </c>
-      <c r="B32" s="533" t="inlineStr">
+      <c r="B34" s="543" t="inlineStr">
         <is>
           <t>27/01/2022</t>
         </is>
       </c>
-      <c r="C32" s="536" t="inlineStr">
+      <c r="C34" s="546" t="inlineStr">
         <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="D32" s="536" t="inlineStr">
+      <c r="D34" s="546" t="inlineStr">
         <is>
           <t>Jerónimo Martins, SGPS, S.A.</t>
         </is>
       </c>
-      <c r="E32" s="536" t="inlineStr">
+      <c r="E34" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> Presentation of Jeronimo Martins Group strategy for Europe </t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="536" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="546" t="inlineStr">
         <is>
           <t>Hugo Monteiro Brilhante Sobral</t>
         </is>
       </c>
-      <c r="B33" s="533" t="inlineStr">
+      <c r="B35" s="543" t="inlineStr">
         <is>
           <t>18/01/2022</t>
         </is>
       </c>
-      <c r="C33" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D33" s="536" t="inlineStr">
+      <c r="C35" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D35" s="546" t="inlineStr">
         <is>
           <t>Jerónimo Martins, SGPS, S.A.</t>
         </is>
       </c>
-      <c r="E33" s="536" t="inlineStr">
+      <c r="E35" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> EU reaction to the pandemic crisis</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="536" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="546" t="inlineStr">
         <is>
           <t>Hugo Monteiro Brilhante Sobral</t>
         </is>
       </c>
-      <c r="B34" s="533" t="inlineStr">
+      <c r="B36" s="543" t="inlineStr">
         <is>
           <t>09/12/2021</t>
         </is>
       </c>
-      <c r="C34" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D34" s="536" t="inlineStr">
+      <c r="C36" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D36" s="546" t="inlineStr">
         <is>
           <t>Huawei Technologies</t>
         </is>
       </c>
-      <c r="E34" s="536" t="inlineStr">
+      <c r="E36" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> "Long Term Vision and Connectivity" in and for rural Regions</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="536" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="546" t="inlineStr">
         <is>
           <t>Carole Mancel-Blanchard</t>
         </is>
       </c>
-      <c r="B35" s="533" t="inlineStr">
+      <c r="B37" s="543" t="inlineStr">
         <is>
           <t>03/12/2021</t>
         </is>
       </c>
-      <c r="C35" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D35" s="536" t="inlineStr">
+      <c r="C37" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D37" s="546" t="inlineStr">
         <is>
           <t>Illumina, Inc.</t>
         </is>
       </c>
-      <c r="E35" s="536" t="inlineStr">
+      <c r="E37" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> Presentation of the merger case Illumina and Grail </t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="536" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="546" t="inlineStr">
         <is>
           <t>Simeona Manova</t>
         </is>
       </c>
-      <c r="B36" s="533" t="inlineStr">
+      <c r="B38" s="543" t="inlineStr">
         <is>
           <t>02/12/2021</t>
         </is>
       </c>
-      <c r="C36" s="536" t="inlineStr">
+      <c r="C38" s="546" t="inlineStr">
         <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="D36" s="536" t="inlineStr">
+      <c r="D38" s="546" t="inlineStr">
         <is>
           <t>CIP - Confederação Empresarial de Portugal</t>
         </is>
       </c>
-      <c r="E36" s="536" t="inlineStr">
+      <c r="E38" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">EU due diligence plans and changes to the corporate governance </t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="536" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="546" t="inlineStr">
         <is>
           <t>Simeona Manova</t>
         </is>
       </c>
-      <c r="B37" s="533" t="inlineStr">
+      <c r="B39" s="543" t="inlineStr">
         <is>
           <t>02/12/2021</t>
         </is>
       </c>
-      <c r="C37" s="536" t="inlineStr">
+      <c r="C39" s="546" t="inlineStr">
         <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="D37" s="536" t="inlineStr">
+      <c r="D39" s="546" t="inlineStr">
         <is>
           <t>AES Maritza East I Services EOOD</t>
         </is>
       </c>
-      <c r="E37" s="536" t="inlineStr">
+      <c r="E39" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">Recovery and Resilience Plan (RRP) delivered by Bulgaria and the energy sector of the country </t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="536" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="546" t="inlineStr">
         <is>
           <t>Carole Mancel-Blanchard</t>
         </is>
       </c>
-      <c r="B38" s="533" t="inlineStr">
+      <c r="B40" s="543" t="inlineStr">
         <is>
           <t>23/11/2021</t>
         </is>
       </c>
-      <c r="C38" s="536" t="inlineStr">
+      <c r="C40" s="546" t="inlineStr">
         <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="D38" s="536" t="inlineStr">
+      <c r="D40" s="546" t="inlineStr">
         <is>
           <t>European Ceramic Industry Association</t>
         </is>
       </c>
-      <c r="E38" s="536" t="inlineStr">
+      <c r="E40" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">Meeting on the draft Communication on the revised Climate, Energy and Environmental Aid Guidelines (CEEAG)  </t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="536" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="546" t="inlineStr">
         <is>
           <t>Marlene Madsen</t>
         </is>
       </c>
-      <c r="B39" s="533" t="inlineStr">
+      <c r="B41" s="543" t="inlineStr">
         <is>
           <t>23/11/2021</t>
         </is>
       </c>
-      <c r="C39" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D39" s="536" t="inlineStr">
+      <c r="C41" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D41" s="546" t="inlineStr">
         <is>
           <t>Clean Clothes Campaign / Stichting Schone Kleren Kampagne, European Coalition for Corporate Justice</t>
         </is>
       </c>
-      <c r="E39" s="536" t="inlineStr">
+      <c r="E41" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sustainable Corporate Governance </t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="536" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="546" t="inlineStr">
         <is>
           <t>Wioletta Dunin-Majewska</t>
         </is>
       </c>
-      <c r="B40" s="533" t="inlineStr">
+      <c r="B42" s="543" t="inlineStr">
         <is>
           <t>09/11/2021</t>
         </is>
       </c>
-      <c r="C40" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D40" s="536" t="inlineStr">
+      <c r="C42" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D42" s="546" t="inlineStr">
         <is>
           <t>European Policies Research Centre Delft</t>
         </is>
       </c>
-      <c r="E40" s="536" t="inlineStr">
+      <c r="E42" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> Cohesion policy Masterclass 2022 </t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="536" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="546" t="inlineStr">
         <is>
           <t>Francisco Barros Castro</t>
         </is>
       </c>
-      <c r="B41" s="533" t="inlineStr">
+      <c r="B43" s="543" t="inlineStr">
         <is>
           <t>04/11/2021</t>
         </is>
       </c>
-      <c r="C41" s="536" t="inlineStr">
+      <c r="C43" s="546" t="inlineStr">
         <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="D41" s="536" t="inlineStr">
+      <c r="D43" s="546" t="inlineStr">
         <is>
           <t>Uber, EU Strategy, Move EU - The European Association of On-Demand Mobility</t>
         </is>
       </c>
-      <c r="E41" s="536" t="inlineStr">
+      <c r="E43" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">Discussion on platform workers </t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="536" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="546" t="inlineStr">
         <is>
           <t>Carole Mancel-Blanchard</t>
         </is>
       </c>
-      <c r="B42" s="533" t="inlineStr">
+      <c r="B44" s="543" t="inlineStr">
         <is>
           <t>21/10/2021</t>
         </is>
       </c>
-      <c r="C42" s="536" t="inlineStr">
+      <c r="C44" s="546" t="inlineStr">
         <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="D42" s="536" t="inlineStr">
+      <c r="D44" s="546" t="inlineStr">
         <is>
           <t>Ericsson</t>
         </is>
       </c>
-      <c r="E42" s="536" t="inlineStr">
+      <c r="E44" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> Contribution of digital connectivity to the Green Deal</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="536" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="546" t="inlineStr">
         <is>
           <t>Marlene Madsen</t>
         </is>
       </c>
-      <c r="B43" s="533" t="inlineStr">
+      <c r="B45" s="543" t="inlineStr">
         <is>
           <t>18/10/2021</t>
         </is>
       </c>
-      <c r="C43" s="536" t="inlineStr">
+      <c r="C45" s="546" t="inlineStr">
         <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="D43" s="536" t="inlineStr">
+      <c r="D45" s="546" t="inlineStr">
         <is>
           <t>Brunswick Group Advisory Limited, SIBS</t>
         </is>
       </c>
-      <c r="E43" s="536" t="inlineStr">
+      <c r="E45" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">Pan-European payments systems, digital finance and cybersecurity </t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="536" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="546" t="inlineStr">
         <is>
           <t>Pedro MOIA</t>
         </is>
       </c>
-      <c r="B44" s="533" t="inlineStr">
+      <c r="B46" s="543" t="inlineStr">
         <is>
           <t>05/10/2021</t>
         </is>
       </c>
-      <c r="C44" s="536" t="inlineStr">
+      <c r="C46" s="546" t="inlineStr">
         <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="D44" s="536" t="inlineStr">
+      <c r="D46" s="546" t="inlineStr">
         <is>
           <t>European Association of Research and Technology Organisations</t>
         </is>
       </c>
-      <c r="E44" s="536" t="inlineStr">
+      <c r="E46" s="546" t="inlineStr">
         <is>
           <t>Research and innovation smart specialisation strategies and technology infrastructures at regional level</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="536" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="546" t="inlineStr">
         <is>
           <t>Simeona Manova</t>
         </is>
       </c>
-      <c r="B45" s="533" t="inlineStr">
+      <c r="B47" s="543" t="inlineStr">
         <is>
           <t>29/09/2021</t>
         </is>
       </c>
-      <c r="C45" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D45" s="536" t="inlineStr">
+      <c r="C47" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D47" s="546" t="inlineStr">
         <is>
           <t>Fachverband der Stein- und keramischen Industrie</t>
         </is>
       </c>
-      <c r="E45" s="536" t="inlineStr">
+      <c r="E47" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">European but local - The contribution of the bricks and tiles industry to the European Green Deal </t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="536" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="546" t="inlineStr">
         <is>
           <t>Wioletta Dunin-Majewska, Carole Mancel-Blanchard</t>
         </is>
       </c>
-      <c r="B46" s="533" t="inlineStr">
+      <c r="B48" s="543" t="inlineStr">
         <is>
           <t>23/09/2021</t>
         </is>
       </c>
-      <c r="C46" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D46" s="536" t="inlineStr">
+      <c r="C48" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D48" s="546" t="inlineStr">
         <is>
           <t>ARCTURUS GROUP, Agence de développement et d'innovation de Mayotte</t>
         </is>
       </c>
-      <c r="E46" s="536" t="inlineStr">
+      <c r="E48" s="546" t="inlineStr">
         <is>
           <t>The challenges and opportunities that this outermost region of the EU represents in the fields of sustainability, cohesion related topics, energy, development and innovation, etc.</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="536" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="546" t="inlineStr">
         <is>
           <t>Wioletta Dunin-Majewska, Francisco Barros Castro</t>
         </is>
       </c>
-      <c r="B47" s="533" t="inlineStr">
+      <c r="B49" s="543" t="inlineStr">
         <is>
           <t>20/07/2021</t>
         </is>
       </c>
-      <c r="C47" s="536" t="inlineStr">
+      <c r="C49" s="546" t="inlineStr">
         <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="D47" s="536" t="inlineStr">
+      <c r="D49" s="546" t="inlineStr">
         <is>
           <t>Galp Energia, SGPS, SA</t>
         </is>
       </c>
-      <c r="E47" s="536" t="inlineStr">
+      <c r="E49" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> Batteries value chain</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="536" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="546" t="inlineStr">
         <is>
           <t>Francisco Barros Castro</t>
         </is>
       </c>
-      <c r="B48" s="533" t="inlineStr">
+      <c r="B50" s="543" t="inlineStr">
         <is>
           <t>28/06/2021</t>
         </is>
       </c>
-      <c r="C48" s="536" t="inlineStr">
+      <c r="C50" s="546" t="inlineStr">
         <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="D48" s="536" t="inlineStr">
+      <c r="D50" s="546" t="inlineStr">
         <is>
           <t>Conféderation Européenne des Propriétaires Forestiers</t>
         </is>
       </c>
-      <c r="E48" s="536" t="inlineStr">
+      <c r="E50" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> The new EU Forest Strategy  </t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="536" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="546" t="inlineStr">
         <is>
           <t>Francisco Barros Castro, Hugo Monteiro Brilhante Sobral</t>
         </is>
       </c>
-      <c r="B49" s="533" t="inlineStr">
+      <c r="B51" s="543" t="inlineStr">
         <is>
           <t>22/06/2021</t>
         </is>
       </c>
-      <c r="C49" s="536" t="inlineStr">
+      <c r="C51" s="546" t="inlineStr">
         <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="D49" s="536" t="inlineStr">
+      <c r="D51" s="546" t="inlineStr">
         <is>
           <t>Comissão Central de Trabalhadores da Petrogal</t>
         </is>
       </c>
-      <c r="E49" s="536" t="inlineStr">
+      <c r="E51" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">Situação da refinaria de Matosinhos e papel dos fundos estruturais numa transição justa  </t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="536" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="546" t="inlineStr">
         <is>
           <t>Simeona Manova</t>
         </is>
       </c>
-      <c r="B50" s="533" t="inlineStr">
+      <c r="B52" s="543" t="inlineStr">
         <is>
           <t>22/06/2021</t>
         </is>
       </c>
-      <c r="C50" s="536" t="inlineStr">
+      <c r="C52" s="546" t="inlineStr">
         <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="D50" s="536" t="inlineStr">
+      <c r="D52" s="546" t="inlineStr">
         <is>
           <t>AES Maritza East I Services EOOD</t>
         </is>
       </c>
-      <c r="E50" s="536" t="inlineStr">
+      <c r="E52" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">Competitiveness of the Bulgarian and regional energy sector  </t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="536" t="inlineStr">
+    <row r="53">
+      <c r="A53" s="546" t="inlineStr">
         <is>
           <t>Wioletta Dunin-Majewska</t>
         </is>
       </c>
-      <c r="B51" s="533" t="inlineStr">
+      <c r="B53" s="543" t="inlineStr">
         <is>
           <t>18/06/2021</t>
         </is>
       </c>
-      <c r="C51" s="536" t="inlineStr">
+      <c r="C53" s="546" t="inlineStr">
         <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="D51" s="536" t="inlineStr">
+      <c r="D53" s="546" t="inlineStr">
         <is>
           <t>Climate Action Network Europe</t>
         </is>
       </c>
-      <c r="E51" s="536" t="inlineStr">
+      <c r="E53" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">  The upcoming Fit for 55 legislative package </t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="536" t="inlineStr">
+    <row r="54">
+      <c r="A54" s="546" t="inlineStr">
         <is>
           <t>Wioletta Dunin-Majewska</t>
         </is>
       </c>
-      <c r="B52" s="533" t="inlineStr">
+      <c r="B54" s="543" t="inlineStr">
         <is>
           <t>01/06/2021</t>
         </is>
       </c>
-      <c r="C52" s="536" t="inlineStr">
+      <c r="C54" s="546" t="inlineStr">
         <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="D52" s="536" t="inlineStr">
+      <c r="D54" s="546" t="inlineStr">
         <is>
           <t>Third Generation Environmentalism Ltd</t>
         </is>
       </c>
-      <c r="E52" s="536" t="inlineStr">
+      <c r="E54" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">Participation to the event “How to seize the potential for a green recovery in Central and Eastern Europe” and panel discussion. </t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="536" t="inlineStr">
+    <row r="55">
+      <c r="A55" s="546" t="inlineStr">
         <is>
           <t>Simeona Manova</t>
         </is>
       </c>
-      <c r="B53" s="533" t="inlineStr">
+      <c r="B55" s="543" t="inlineStr">
         <is>
           <t>31/05/2021</t>
         </is>
       </c>
-      <c r="C53" s="536" t="inlineStr">
+      <c r="C55" s="546" t="inlineStr">
         <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="D53" s="536" t="inlineStr">
+      <c r="D55" s="546" t="inlineStr">
         <is>
           <t>EIDD - Design for All Europe</t>
         </is>
       </c>
-      <c r="E53" s="536" t="inlineStr">
+      <c r="E55" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> New European Bauhaus </t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="536" t="inlineStr">
+    <row r="56">
+      <c r="A56" s="546" t="inlineStr">
         <is>
           <t>Carole Mancel-Blanchard</t>
         </is>
       </c>
-      <c r="B54" s="533" t="inlineStr">
+      <c r="B56" s="543" t="inlineStr">
         <is>
           <t>28/05/2021</t>
         </is>
       </c>
-      <c r="C54" s="536" t="inlineStr">
+      <c r="C56" s="546" t="inlineStr">
         <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="D54" s="536" t="inlineStr">
+      <c r="D56" s="546" t="inlineStr">
         <is>
           <t>Vodafone Belgium SA</t>
         </is>
       </c>
-      <c r="E54" s="536" t="inlineStr">
+      <c r="E56" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> Rural/digital transformation and achievements of EU digital targets </t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="536" t="inlineStr">
+    <row r="57">
+      <c r="A57" s="546" t="inlineStr">
         <is>
           <t>Simeona Manova</t>
         </is>
       </c>
-      <c r="B55" s="533" t="inlineStr">
+      <c r="B57" s="543" t="inlineStr">
         <is>
           <t>25/05/2021</t>
         </is>
       </c>
-      <c r="C55" s="536" t="inlineStr">
+      <c r="C57" s="546" t="inlineStr">
         <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="D55" s="536" t="inlineStr">
+      <c r="D57" s="546" t="inlineStr">
         <is>
           <t>Network of European Regions for a Competitive and Sustainable Tourism</t>
         </is>
       </c>
-      <c r="E55" s="536" t="inlineStr">
+      <c r="E57" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">Discussion on the territorial outlook of tourism recovery in 
 relation with the opportunities for supporting the tourism ecosystem regeneration. </t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="536" t="inlineStr">
+    <row r="58">
+      <c r="A58" s="546" t="inlineStr">
         <is>
           <t>Carole Mancel-Blanchard</t>
         </is>
       </c>
-      <c r="B56" s="533" t="inlineStr">
+      <c r="B58" s="543" t="inlineStr">
         <is>
           <t>30/04/2021</t>
         </is>
       </c>
-      <c r="C56" s="536" t="inlineStr">
+      <c r="C58" s="546" t="inlineStr">
         <is>
           <t>Online</t>
         </is>
       </c>
-      <c r="D56" s="536" t="inlineStr">
+      <c r="D58" s="546" t="inlineStr">
         <is>
           <t>SMEunited aisbl</t>
         </is>
       </c>
-      <c r="E56" s="536" t="inlineStr">
+      <c r="E58" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> SMEs long term vision for the future of rural areas </t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="536" t="inlineStr">
+    <row r="59">
+      <c r="A59" s="546" t="inlineStr">
         <is>
           <t>Wioletta Dunin-Majewska</t>
         </is>
       </c>
-      <c r="B57" s="533" t="inlineStr">
+      <c r="B59" s="543" t="inlineStr">
         <is>
           <t>15/03/2021</t>
         </is>
       </c>
-      <c r="C57" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D57" s="536" t="inlineStr">
+      <c r="C59" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D59" s="546" t="inlineStr">
         <is>
           <t>ROCKWOOL International A/S</t>
         </is>
       </c>
-      <c r="E57" s="536" t="inlineStr">
+      <c r="E59" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> Cohesion policy for building capacity to deliver green energy goals</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="536" t="inlineStr">
+    <row r="60">
+      <c r="A60" s="546" t="inlineStr">
         <is>
           <t>Marlene Madsen</t>
         </is>
       </c>
-      <c r="B58" s="533" t="inlineStr">
+      <c r="B60" s="543" t="inlineStr">
         <is>
           <t>24/02/2021</t>
         </is>
       </c>
-      <c r="C58" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D58" s="536" t="inlineStr">
+      <c r="C60" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D60" s="546" t="inlineStr">
         <is>
           <t>Association for Financial Markets in Europe</t>
         </is>
       </c>
-      <c r="E58" s="536" t="inlineStr">
+      <c r="E60" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sustainable Finance </t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="536" t="inlineStr">
+    <row r="61">
+      <c r="A61" s="546" t="inlineStr">
         <is>
           <t>Carole Mancel-Blanchard</t>
         </is>
       </c>
-      <c r="B59" s="533" t="inlineStr">
+      <c r="B61" s="543" t="inlineStr">
         <is>
           <t>18/02/2021</t>
         </is>
       </c>
-      <c r="C59" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D59" s="536" t="inlineStr">
+      <c r="C61" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D61" s="546" t="inlineStr">
         <is>
           <t>Southern Sparsely Populated Areas network</t>
         </is>
       </c>
-      <c r="E59" s="536" t="inlineStr">
+      <c r="E61" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> Presentation of Project 5 for Rural</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="536" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="546" t="inlineStr">
         <is>
           <t>Francisco Barros Castro</t>
         </is>
       </c>
-      <c r="B60" s="533" t="inlineStr">
+      <c r="B62" s="543" t="inlineStr">
         <is>
           <t>17/02/2021</t>
         </is>
       </c>
-      <c r="C60" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D60" s="536" t="inlineStr">
+      <c r="C62" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D62" s="546" t="inlineStr">
         <is>
           <t>Airholding S.A.</t>
         </is>
       </c>
-      <c r="E60" s="536" t="inlineStr">
+      <c r="E62" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">  Update on the activities of the Embraer Group in Portugal   </t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="536" t="inlineStr">
+    <row r="63">
+      <c r="A63" s="546" t="inlineStr">
         <is>
           <t>Wioletta Dunin-Majewska, Francisco Barros Castro</t>
         </is>
       </c>
-      <c r="B61" s="533" t="inlineStr">
+      <c r="B63" s="543" t="inlineStr">
         <is>
           <t>02/02/2021</t>
         </is>
       </c>
-      <c r="C61" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D61" s="536" t="inlineStr">
+      <c r="C63" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D63" s="546" t="inlineStr">
         <is>
           <t>Ridens, S.C. Verde Magnesium S.R.L.</t>
         </is>
       </c>
-      <c r="E61" s="536" t="inlineStr">
+      <c r="E63" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> Presentation of mining strategy in Romania  </t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="536" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="546" t="inlineStr">
         <is>
           <t>Carole Mancel-Blanchard</t>
         </is>
       </c>
-      <c r="B62" s="533" t="inlineStr">
+      <c r="B64" s="543" t="inlineStr">
         <is>
           <t>27/01/2021</t>
         </is>
       </c>
-      <c r="C62" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D62" s="536" t="inlineStr">
+      <c r="C64" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D64" s="546" t="inlineStr">
         <is>
           <t>Deloitte &amp; Associés</t>
         </is>
       </c>
-      <c r="E62" s="536" t="inlineStr">
+      <c r="E64" s="546" t="inlineStr">
         <is>
           <t>Shaping the future of EU Cities
 Remark: Interview by Deloitte Portugal</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="536" t="inlineStr">
+    <row r="65">
+      <c r="A65" s="546" t="inlineStr">
         <is>
           <t>Hugo Monteiro Brilhante Sobral, Francisco Barros Castro</t>
         </is>
       </c>
-      <c r="B63" s="533" t="inlineStr">
+      <c r="B65" s="543" t="inlineStr">
         <is>
           <t>21/01/2021</t>
         </is>
       </c>
-      <c r="C63" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D63" s="536" t="inlineStr">
+      <c r="C65" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D65" s="546" t="inlineStr">
         <is>
           <t>Galp Energia, SGPS, SA, EUPPORTUNITY (QB, Lda.)</t>
         </is>
       </c>
-      <c r="E63" s="536" t="inlineStr">
+      <c r="E65" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">EU Recovery / Next Generation  </t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="536" t="inlineStr">
+    <row r="66">
+      <c r="A66" s="546" t="inlineStr">
         <is>
           <t>Simeona Manova</t>
         </is>
       </c>
-      <c r="B64" s="533" t="inlineStr">
+      <c r="B66" s="543" t="inlineStr">
         <is>
           <t>18/01/2021</t>
         </is>
       </c>
-      <c r="C64" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D64" s="536" t="inlineStr">
+      <c r="C66" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D66" s="546" t="inlineStr">
         <is>
           <t>Network of European Regions for a Competitive and Sustainable Tourism</t>
         </is>
       </c>
-      <c r="E64" s="536" t="inlineStr">
+      <c r="E66" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">Online meeting with NECSTouR on highlights of the webinar "Next Generation EU and the sustainable and resilient regional tourism recovery"  </t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="536" t="inlineStr">
+    <row r="67">
+      <c r="A67" s="546" t="inlineStr">
         <is>
           <t>Hugo Monteiro Brilhante Sobral</t>
         </is>
       </c>
-      <c r="B65" s="533" t="inlineStr">
+      <c r="B67" s="543" t="inlineStr">
         <is>
           <t>02/12/2020</t>
         </is>
       </c>
-      <c r="C65" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D65" s="536" t="inlineStr">
+      <c r="C67" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D67" s="546" t="inlineStr">
         <is>
           <t>FIPRA International SRL</t>
         </is>
       </c>
-      <c r="E65" s="536" t="inlineStr">
+      <c r="E67" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">Webinar Portuguese EU presidency - "Summer storms or a new normal?" </t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="536" t="inlineStr">
+    <row r="68">
+      <c r="A68" s="546" t="inlineStr">
         <is>
           <t>Simeona Manova</t>
         </is>
       </c>
-      <c r="B66" s="533" t="inlineStr">
+      <c r="B68" s="543" t="inlineStr">
         <is>
           <t>02/12/2020</t>
         </is>
       </c>
-      <c r="C66" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D66" s="536" t="inlineStr">
+      <c r="C68" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D68" s="546" t="inlineStr">
         <is>
           <t>Bundesverband der Deutschen Tourismuswirtschaft e. V.</t>
         </is>
       </c>
-      <c r="E66" s="536" t="inlineStr">
+      <c r="E68" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> Update on UNWTO recent activities</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="536" t="inlineStr">
+    <row r="69">
+      <c r="A69" s="546" t="inlineStr">
         <is>
           <t>Carole Mancel-Blanchard</t>
         </is>
       </c>
-      <c r="B67" s="533" t="inlineStr">
+      <c r="B69" s="543" t="inlineStr">
         <is>
           <t>10/11/2020</t>
         </is>
       </c>
-      <c r="C67" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D67" s="536" t="inlineStr">
+      <c r="C69" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D69" s="546" t="inlineStr">
         <is>
           <t>SGI Europe</t>
         </is>
       </c>
-      <c r="E67" s="536" t="inlineStr">
+      <c r="E69" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">Long-term vision for rural areas
 </t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="536" t="inlineStr">
+    <row r="70">
+      <c r="A70" s="546" t="inlineStr">
         <is>
           <t>Wioletta Dunin-Majewska</t>
         </is>
       </c>
-      <c r="B68" s="533" t="inlineStr">
+      <c r="B70" s="543" t="inlineStr">
         <is>
           <t>04/11/2020</t>
         </is>
       </c>
-      <c r="C68" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D68" s="536" t="inlineStr">
+      <c r="C70" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D70" s="546" t="inlineStr">
         <is>
           <t>Ocean Energy Europe</t>
         </is>
       </c>
-      <c r="E68" s="536" t="inlineStr">
+      <c r="E70" s="546" t="inlineStr">
         <is>
           <t>Potential of ocean energy for decarbonisation and economic recovery in regions.</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="536" t="inlineStr">
+    <row r="71">
+      <c r="A71" s="546" t="inlineStr">
         <is>
           <t>Wioletta Dunin-Majewska</t>
         </is>
       </c>
-      <c r="B69" s="533" t="inlineStr">
+      <c r="B71" s="543" t="inlineStr">
         <is>
           <t>30/10/2020</t>
         </is>
       </c>
-      <c r="C69" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D69" s="536" t="inlineStr">
+      <c r="C71" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D71" s="546" t="inlineStr">
         <is>
           <t>WindEurope</t>
         </is>
       </c>
-      <c r="E69" s="536" t="inlineStr">
+      <c r="E71" s="546" t="inlineStr">
         <is>
           <t>Wind energy for post-COVID green recovery, jobs, EU technological leadership, benefiting communities.</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="536" t="inlineStr">
+    <row r="72">
+      <c r="A72" s="546" t="inlineStr">
         <is>
           <t>Wioletta Dunin-Majewska, Francisco Barros Castro</t>
         </is>
       </c>
-      <c r="B70" s="533" t="inlineStr">
+      <c r="B72" s="543" t="inlineStr">
         <is>
           <t>23/10/2020</t>
         </is>
       </c>
-      <c r="C70" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D70" s="536" t="inlineStr">
+      <c r="C72" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D72" s="546" t="inlineStr">
         <is>
           <t>Social Progress Imperative</t>
         </is>
       </c>
-      <c r="E70" s="536" t="inlineStr">
+      <c r="E72" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve">- Social progress index – assumptions and composition
 - Green indicators in the SPI
@@ -3997,1000 +4081,1000 @@
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="536" t="inlineStr">
+    <row r="73">
+      <c r="A73" s="546" t="inlineStr">
         <is>
           <t>Wioletta Dunin-Majewska</t>
         </is>
       </c>
-      <c r="B71" s="533" t="inlineStr">
+      <c r="B73" s="543" t="inlineStr">
         <is>
           <t>07/10/2020</t>
         </is>
       </c>
-      <c r="C71" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D71" s="536" t="inlineStr">
+      <c r="C73" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D73" s="546" t="inlineStr">
         <is>
           <t>Rud Pedersen Public Affairs Brussels</t>
         </is>
       </c>
-      <c r="E71" s="536" t="inlineStr">
+      <c r="E73" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> Renovation Wave, energy efficiency solutions.</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="536" t="inlineStr">
+    <row r="74">
+      <c r="A74" s="546" t="inlineStr">
         <is>
           <t>Marlene Madsen</t>
         </is>
       </c>
-      <c r="B72" s="533" t="inlineStr">
+      <c r="B74" s="543" t="inlineStr">
         <is>
           <t>28/09/2020</t>
         </is>
       </c>
-      <c r="C72" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D72" s="536" t="inlineStr">
+      <c r="C74" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D74" s="546" t="inlineStr">
         <is>
           <t>European Business and Innovation Centre Network</t>
         </is>
       </c>
-      <c r="E72" s="536" t="inlineStr">
+      <c r="E74" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> Innovation and regional initiatives</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="536" t="inlineStr">
+    <row r="75">
+      <c r="A75" s="546" t="inlineStr">
         <is>
           <t>Marlene Madsen</t>
         </is>
       </c>
-      <c r="B73" s="533" t="inlineStr">
+      <c r="B75" s="543" t="inlineStr">
         <is>
           <t>22/09/2020</t>
         </is>
       </c>
-      <c r="C73" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D73" s="536" t="inlineStr">
+      <c r="C75" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D75" s="546" t="inlineStr">
         <is>
           <t>NORTH SWEDEN EUROPEAN OFFICE</t>
         </is>
       </c>
-      <c r="E73" s="536" t="inlineStr">
+      <c r="E75" s="546" t="inlineStr">
         <is>
           <t xml:space="preserve"> EU budget and Cohesion policy post-2020</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="536" t="inlineStr">
+    <row r="76">
+      <c r="A76" s="546" t="inlineStr">
+        <is>
+          <t>Francisco Barros Castro</t>
+        </is>
+      </c>
+      <c r="B76" s="543" t="inlineStr">
+        <is>
+          <t>27/08/2020</t>
+        </is>
+      </c>
+      <c r="C76" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D76" s="546" t="inlineStr">
+        <is>
+          <t>Estrutura para Implementação do Gabinete de Representação da Região Autónoma dos Açores</t>
+        </is>
+      </c>
+      <c r="E76" s="546" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Presentation of their offices in Brussels</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="546" t="inlineStr">
         <is>
           <t>Wioletta Dunin-Majewska</t>
         </is>
       </c>
-      <c r="B74" s="533" t="inlineStr">
+      <c r="B77" s="543" t="inlineStr">
         <is>
           <t>27/08/2020</t>
         </is>
       </c>
-      <c r="C74" s="536" t="inlineStr">
+      <c r="C77" s="546" t="inlineStr">
         <is>
           <t>Brussels VC</t>
         </is>
       </c>
-      <c r="D74" s="536" t="inlineStr">
+      <c r="D77" s="546" t="inlineStr">
         <is>
           <t>Water Europe</t>
         </is>
       </c>
-      <c r="E74" s="536" t="inlineStr">
+      <c r="E77" s="546" t="inlineStr">
         <is>
           <t>Discussion on the ways stakeholders representing the water protecting and saving organisations can influence policy choices</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="536" t="inlineStr">
+    <row r="78">
+      <c r="A78" s="546" t="inlineStr">
+        <is>
+          <t>Pedro MOIA</t>
+        </is>
+      </c>
+      <c r="B78" s="543" t="inlineStr">
+        <is>
+          <t>17/08/2020</t>
+        </is>
+      </c>
+      <c r="C78" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D78" s="546" t="inlineStr">
+        <is>
+          <t>Movimento Cultural da Terra de Miranda</t>
+        </is>
+      </c>
+      <c r="E78" s="546" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VC on presentation of the Terras de Miranda Cultural Manifesto</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="546" t="inlineStr">
+        <is>
+          <t>Wioletta Dunin-Majewska</t>
+        </is>
+      </c>
+      <c r="B79" s="543" t="inlineStr">
+        <is>
+          <t>30/07/2020</t>
+        </is>
+      </c>
+      <c r="C79" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D79" s="546" t="inlineStr">
+        <is>
+          <t>Climate Action Network Europe</t>
+        </is>
+      </c>
+      <c r="E79" s="546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Virtual Meeting on European Commission's commitments under the European Green Deal and the 2030 climate target. </t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="546" t="inlineStr">
+        <is>
+          <t>Simeona Manova</t>
+        </is>
+      </c>
+      <c r="B80" s="543" t="inlineStr">
+        <is>
+          <t>10/07/2020</t>
+        </is>
+      </c>
+      <c r="C80" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D80" s="546" t="inlineStr">
+        <is>
+          <t>European Boating Industry</t>
+        </is>
+      </c>
+      <c r="E80" s="546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VC on EBI position paper and COVID-19 Impact in Europe  </t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="546" t="inlineStr">
+        <is>
+          <t>Carole Mancel-Blanchard</t>
+        </is>
+      </c>
+      <c r="B81" s="543" t="inlineStr">
+        <is>
+          <t>09/07/2020</t>
+        </is>
+      </c>
+      <c r="C81" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D81" s="546" t="inlineStr">
+        <is>
+          <t>Bpifrance</t>
+        </is>
+      </c>
+      <c r="E81" s="546" t="inlineStr">
+        <is>
+          <t>Presentation of the activities of Bpifrance</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="546" t="inlineStr">
+        <is>
+          <t>Wioletta Dunin-Majewska</t>
+        </is>
+      </c>
+      <c r="B82" s="543" t="inlineStr">
+        <is>
+          <t>09/07/2020</t>
+        </is>
+      </c>
+      <c r="C82" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D82" s="546" t="inlineStr">
+        <is>
+          <t>Volvo AB</t>
+        </is>
+      </c>
+      <c r="E82" s="546" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Decarbonisation of transports</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="546" t="inlineStr">
+        <is>
+          <t>Carole Mancel-Blanchard</t>
+        </is>
+      </c>
+      <c r="B83" s="543" t="inlineStr">
+        <is>
+          <t>26/06/2020</t>
+        </is>
+      </c>
+      <c r="C83" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D83" s="546" t="inlineStr">
+        <is>
+          <t>SUEZ Group</t>
+        </is>
+      </c>
+      <c r="E83" s="546" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Video conference on the Green Recovery </t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="546" t="inlineStr">
+        <is>
+          <t>Simeona Manova</t>
+        </is>
+      </c>
+      <c r="B84" s="543" t="inlineStr">
+        <is>
+          <t>18/06/2020</t>
+        </is>
+      </c>
+      <c r="C84" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D84" s="546" t="inlineStr">
+        <is>
+          <t>SMEunited aisbl</t>
+        </is>
+      </c>
+      <c r="E84" s="546" t="inlineStr">
+        <is>
+          <t>The future of Cohesion Policy</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="546" t="inlineStr">
+        <is>
+          <t>Wioletta Dunin-Majewska</t>
+        </is>
+      </c>
+      <c r="B85" s="543" t="inlineStr">
+        <is>
+          <t>18/06/2020</t>
+        </is>
+      </c>
+      <c r="C85" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D85" s="546" t="inlineStr">
+        <is>
+          <t>Xylem Inc., Kreab</t>
+        </is>
+      </c>
+      <c r="E85" s="546" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cohesion Policy Investment and Water solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="546" t="inlineStr">
+        <is>
+          <t>Wioletta Dunin-Majewska</t>
+        </is>
+      </c>
+      <c r="B86" s="543" t="inlineStr">
+        <is>
+          <t>16/06/2020</t>
+        </is>
+      </c>
+      <c r="C86" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D86" s="546" t="inlineStr">
+        <is>
+          <t>WindEurope</t>
+        </is>
+      </c>
+      <c r="E86" s="546" t="inlineStr">
+        <is>
+          <t>Wind industry’s priorities for the Smart Sector Integration and Hydrogen Strategies</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="546" t="inlineStr">
+        <is>
+          <t>Wioletta Dunin-Majewska</t>
+        </is>
+      </c>
+      <c r="B87" s="543" t="inlineStr">
+        <is>
+          <t>13/05/2020</t>
+        </is>
+      </c>
+      <c r="C87" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D87" s="546" t="inlineStr">
+        <is>
+          <t>Transport and Environment (European Federation for Transport and Environment)</t>
+        </is>
+      </c>
+      <c r="E87" s="546" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sustainable transport in recovery (through cohesion policy).</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="546" t="inlineStr">
+        <is>
+          <t>Carole Mancel-Blanchard</t>
+        </is>
+      </c>
+      <c r="B88" s="543" t="inlineStr">
+        <is>
+          <t>07/05/2020</t>
+        </is>
+      </c>
+      <c r="C88" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D88" s="546" t="inlineStr">
+        <is>
+          <t>Euromontana</t>
+        </is>
+      </c>
+      <c r="E88" s="546" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mountain issues in Cohesion Policy </t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="546" t="inlineStr">
+        <is>
+          <t>Carole Mancel-Blanchard</t>
+        </is>
+      </c>
+      <c r="B89" s="543" t="inlineStr">
+        <is>
+          <t>28/04/2020</t>
+        </is>
+      </c>
+      <c r="C89" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D89" s="546" t="inlineStr">
+        <is>
+          <t>Assemblée des Régions d'Europe</t>
+        </is>
+      </c>
+      <c r="E89" s="546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multiannual Financial Framework 2021 – 2027  </t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="546" t="inlineStr">
         <is>
           <t>Francisco Barros Castro</t>
         </is>
       </c>
-      <c r="B75" s="533" t="inlineStr">
-        <is>
-          <t>27/08/2020</t>
-        </is>
-      </c>
-      <c r="C75" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D75" s="536" t="inlineStr">
-        <is>
-          <t>Estrutura para Implementação do Gabinete de Representação da Região Autónoma dos Açores</t>
-        </is>
-      </c>
-      <c r="E75" s="536" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Presentation of their offices in Brussels</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="536" t="inlineStr">
-        <is>
-          <t>Pedro MOIA</t>
-        </is>
-      </c>
-      <c r="B76" s="533" t="inlineStr">
-        <is>
-          <t>17/08/2020</t>
-        </is>
-      </c>
-      <c r="C76" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D76" s="536" t="inlineStr">
-        <is>
-          <t>Movimento Cultural da Terra de Miranda</t>
-        </is>
-      </c>
-      <c r="E76" s="536" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> VC on presentation of the Terras de Miranda Cultural Manifesto</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="536" t="inlineStr">
-        <is>
-          <t>Wioletta Dunin-Majewska</t>
-        </is>
-      </c>
-      <c r="B77" s="533" t="inlineStr">
-        <is>
-          <t>30/07/2020</t>
-        </is>
-      </c>
-      <c r="C77" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D77" s="536" t="inlineStr">
-        <is>
-          <t>Climate Action Network Europe</t>
-        </is>
-      </c>
-      <c r="E77" s="536" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Virtual Meeting on European Commission's commitments under the European Green Deal and the 2030 climate target. </t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="536" t="inlineStr">
-        <is>
-          <t>Simeona Manova</t>
-        </is>
-      </c>
-      <c r="B78" s="533" t="inlineStr">
-        <is>
-          <t>10/07/2020</t>
-        </is>
-      </c>
-      <c r="C78" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D78" s="536" t="inlineStr">
-        <is>
-          <t>European Boating Industry</t>
-        </is>
-      </c>
-      <c r="E78" s="536" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VC on EBI position paper and COVID-19 Impact in Europe  </t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="536" t="inlineStr">
-        <is>
-          <t>Wioletta Dunin-Majewska</t>
-        </is>
-      </c>
-      <c r="B79" s="533" t="inlineStr">
-        <is>
-          <t>09/07/2020</t>
-        </is>
-      </c>
-      <c r="C79" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D79" s="536" t="inlineStr">
-        <is>
-          <t>Volvo AB</t>
-        </is>
-      </c>
-      <c r="E79" s="536" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Decarbonisation of transports</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="536" t="inlineStr">
+      <c r="B90" s="543" t="inlineStr">
+        <is>
+          <t>21/04/2020</t>
+        </is>
+      </c>
+      <c r="C90" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D90" s="546" t="inlineStr">
+        <is>
+          <t>Bruegel</t>
+        </is>
+      </c>
+      <c r="E90" s="546" t="inlineStr">
+        <is>
+          <t>Debate on the role of cohesion policy in the fight against COVID 19</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="546" t="inlineStr">
         <is>
           <t>Carole Mancel-Blanchard</t>
         </is>
       </c>
-      <c r="B80" s="533" t="inlineStr">
-        <is>
-          <t>09/07/2020</t>
-        </is>
-      </c>
-      <c r="C80" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D80" s="536" t="inlineStr">
-        <is>
-          <t>Bpifrance</t>
-        </is>
-      </c>
-      <c r="E80" s="536" t="inlineStr">
-        <is>
-          <t>Presentation of the activities of Bpifrance</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="536" t="inlineStr">
+      <c r="B91" s="543" t="inlineStr">
+        <is>
+          <t>11/03/2020</t>
+        </is>
+      </c>
+      <c r="C91" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D91" s="546" t="inlineStr">
+        <is>
+          <t>Forum Européen pour la Sécurité Urbaine</t>
+        </is>
+      </c>
+      <c r="E91" s="546" t="inlineStr">
+        <is>
+          <t>Cohesion Policy and Security</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="546" t="inlineStr">
+        <is>
+          <t>Francisco Barros Castro</t>
+        </is>
+      </c>
+      <c r="B92" s="543" t="inlineStr">
+        <is>
+          <t>10/03/2020</t>
+        </is>
+      </c>
+      <c r="C92" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D92" s="546" t="inlineStr">
+        <is>
+          <t>Airholding S.A.</t>
+        </is>
+      </c>
+      <c r="E92" s="546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Update on the Activities and Plans of the Embraer Group in Portugal and on Embraer Group’s Global Activities </t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="546" t="inlineStr">
+        <is>
+          <t>Marlene Madsen</t>
+        </is>
+      </c>
+      <c r="B93" s="543" t="inlineStr">
+        <is>
+          <t>05/03/2020</t>
+        </is>
+      </c>
+      <c r="C93" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D93" s="546" t="inlineStr">
+        <is>
+          <t>Sustainary</t>
+        </is>
+      </c>
+      <c r="E93" s="546" t="inlineStr">
+        <is>
+          <t>The role of research and innovation in Reform and Cohesion policies</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="546" t="inlineStr">
         <is>
           <t>Carole Mancel-Blanchard</t>
         </is>
       </c>
-      <c r="B81" s="533" t="inlineStr">
-        <is>
-          <t>26/06/2020</t>
-        </is>
-      </c>
-      <c r="C81" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D81" s="536" t="inlineStr">
-        <is>
-          <t>SUEZ Group</t>
-        </is>
-      </c>
-      <c r="E81" s="536" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Video conference on the Green Recovery </t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="536" t="inlineStr">
-        <is>
-          <t>Wioletta Dunin-Majewska</t>
-        </is>
-      </c>
-      <c r="B82" s="533" t="inlineStr">
-        <is>
-          <t>18/06/2020</t>
-        </is>
-      </c>
-      <c r="C82" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D82" s="536" t="inlineStr">
-        <is>
-          <t>Xylem Inc., Kreab</t>
-        </is>
-      </c>
-      <c r="E82" s="536" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Cohesion Policy Investment and Water solutions</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="536" t="inlineStr">
-        <is>
-          <t>Simeona Manova</t>
-        </is>
-      </c>
-      <c r="B83" s="533" t="inlineStr">
-        <is>
-          <t>18/06/2020</t>
-        </is>
-      </c>
-      <c r="C83" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D83" s="536" t="inlineStr">
-        <is>
-          <t>SMEunited aisbl</t>
-        </is>
-      </c>
-      <c r="E83" s="536" t="inlineStr">
-        <is>
-          <t>The future of Cohesion Policy</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="536" t="inlineStr">
-        <is>
-          <t>Wioletta Dunin-Majewska</t>
-        </is>
-      </c>
-      <c r="B84" s="533" t="inlineStr">
-        <is>
-          <t>16/06/2020</t>
-        </is>
-      </c>
-      <c r="C84" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D84" s="536" t="inlineStr">
-        <is>
-          <t>WindEurope</t>
-        </is>
-      </c>
-      <c r="E84" s="536" t="inlineStr">
-        <is>
-          <t>Wind industry’s priorities for the Smart Sector Integration and Hydrogen Strategies</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="536" t="inlineStr">
-        <is>
-          <t>Wioletta Dunin-Majewska</t>
-        </is>
-      </c>
-      <c r="B85" s="533" t="inlineStr">
-        <is>
-          <t>13/05/2020</t>
-        </is>
-      </c>
-      <c r="C85" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D85" s="536" t="inlineStr">
-        <is>
-          <t>Transport and Environment (European Federation for Transport and Environment)</t>
-        </is>
-      </c>
-      <c r="E85" s="536" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Sustainable transport in recovery (through cohesion policy).</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="536" t="inlineStr">
+      <c r="B94" s="543" t="inlineStr">
+        <is>
+          <t>04/03/2020</t>
+        </is>
+      </c>
+      <c r="C94" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D94" s="546" t="inlineStr">
+        <is>
+          <t>Cámara Oficial de Comercio, Industria, Servicios y Navegación de España</t>
+        </is>
+      </c>
+      <c r="E94" s="546" t="inlineStr">
+        <is>
+          <t>Simplification of Cohesion Policy</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="546" t="inlineStr">
+        <is>
+          <t>Francisco Barros Castro</t>
+        </is>
+      </c>
+      <c r="B95" s="543" t="inlineStr">
+        <is>
+          <t>04/03/2020</t>
+        </is>
+      </c>
+      <c r="C95" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D95" s="546" t="inlineStr">
+        <is>
+          <t>Hope and Homes for Children, Lumos Foundation</t>
+        </is>
+      </c>
+      <c r="E95" s="546" t="inlineStr">
+        <is>
+          <t>Discussion on how best to ensure that the new European Commission delivers on children’s right to family life</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="546" t="inlineStr">
         <is>
           <t>Carole Mancel-Blanchard</t>
         </is>
       </c>
-      <c r="B86" s="533" t="inlineStr">
-        <is>
-          <t>07/05/2020</t>
-        </is>
-      </c>
-      <c r="C86" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D86" s="536" t="inlineStr">
-        <is>
-          <t>Euromontana</t>
-        </is>
-      </c>
-      <c r="E86" s="536" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Mountain issues in Cohesion Policy </t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="536" t="inlineStr">
-        <is>
-          <t>Carole Mancel-Blanchard</t>
-        </is>
-      </c>
-      <c r="B87" s="533" t="inlineStr">
-        <is>
-          <t>28/04/2020</t>
-        </is>
-      </c>
-      <c r="C87" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D87" s="536" t="inlineStr">
-        <is>
-          <t>Assemblée des Régions d'Europe</t>
-        </is>
-      </c>
-      <c r="E87" s="536" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multiannual Financial Framework 2021 – 2027  </t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="536" t="inlineStr">
+      <c r="B96" s="543" t="inlineStr">
+        <is>
+          <t>25/02/2020</t>
+        </is>
+      </c>
+      <c r="C96" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D96" s="546" t="inlineStr">
+        <is>
+          <t>European Metropolitan Authorities</t>
+        </is>
+      </c>
+      <c r="E96" s="546" t="inlineStr">
+        <is>
+          <t>Metropolitan areas and delivery of the EU agenda</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="546" t="inlineStr">
         <is>
           <t>Francisco Barros Castro</t>
         </is>
       </c>
-      <c r="B88" s="533" t="inlineStr">
-        <is>
-          <t>21/04/2020</t>
-        </is>
-      </c>
-      <c r="C88" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D88" s="536" t="inlineStr">
-        <is>
-          <t>Bruegel</t>
-        </is>
-      </c>
-      <c r="E88" s="536" t="inlineStr">
-        <is>
-          <t>Debate on the role of cohesion policy in the fight against COVID 19</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="536" t="inlineStr">
-        <is>
-          <t>Carole Mancel-Blanchard</t>
-        </is>
-      </c>
-      <c r="B89" s="533" t="inlineStr">
-        <is>
-          <t>11/03/2020</t>
-        </is>
-      </c>
-      <c r="C89" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D89" s="536" t="inlineStr">
-        <is>
-          <t>Forum Européen pour la Sécurité Urbaine</t>
-        </is>
-      </c>
-      <c r="E89" s="536" t="inlineStr">
-        <is>
-          <t>Cohesion Policy and Security</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="536" t="inlineStr">
+      <c r="B97" s="543" t="inlineStr">
+        <is>
+          <t>20/02/2020</t>
+        </is>
+      </c>
+      <c r="C97" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D97" s="546" t="inlineStr">
+        <is>
+          <t>EUROPEAN TRADE UNION CONFEDERATION</t>
+        </is>
+      </c>
+      <c r="E97" s="546" t="inlineStr">
+        <is>
+          <t>MFF and Cohesion policy negotiations, Just Transition Mechanism</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="546" t="inlineStr">
         <is>
           <t>Francisco Barros Castro</t>
         </is>
       </c>
-      <c r="B90" s="533" t="inlineStr">
-        <is>
-          <t>10/03/2020</t>
-        </is>
-      </c>
-      <c r="C90" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D90" s="536" t="inlineStr">
-        <is>
-          <t>Airholding S.A.</t>
-        </is>
-      </c>
-      <c r="E90" s="536" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Update on the Activities and Plans of the Embraer Group in Portugal and on Embraer Group’s Global Activities </t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="536" t="inlineStr">
+      <c r="B98" s="543" t="inlineStr">
+        <is>
+          <t>17/02/2020</t>
+        </is>
+      </c>
+      <c r="C98" s="546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brussels </t>
+        </is>
+      </c>
+      <c r="D98" s="546" t="inlineStr">
+        <is>
+          <t>CIP - Confederação Empresarial de Portugal</t>
+        </is>
+      </c>
+      <c r="E98" s="546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An exchange mostly regarding Cohesion Policy </t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="546" t="inlineStr">
+        <is>
+          <t>Francisco Barros Castro</t>
+        </is>
+      </c>
+      <c r="B99" s="543" t="inlineStr">
+        <is>
+          <t>12/02/2020</t>
+        </is>
+      </c>
+      <c r="C99" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D99" s="546" t="inlineStr">
+        <is>
+          <t>Bundesverband der Deutschen Tourismuswirtschaft e. V.</t>
+        </is>
+      </c>
+      <c r="E99" s="546" t="inlineStr">
+        <is>
+          <t>Discuss important topics in tourism</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="546" t="inlineStr">
+        <is>
+          <t>Francisco Barros Castro</t>
+        </is>
+      </c>
+      <c r="B100" s="543" t="inlineStr">
+        <is>
+          <t>11/02/2020</t>
+        </is>
+      </c>
+      <c r="C100" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D100" s="546" t="inlineStr">
+        <is>
+          <t>EDP - Energias de Portugal, SA</t>
+        </is>
+      </c>
+      <c r="E100" s="546" t="inlineStr">
+        <is>
+          <t>Talk about the activity of EDP in Brussels</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="546" t="inlineStr">
         <is>
           <t>Marlene Madsen</t>
         </is>
       </c>
-      <c r="B91" s="533" t="inlineStr">
-        <is>
-          <t>05/03/2020</t>
-        </is>
-      </c>
-      <c r="C91" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D91" s="536" t="inlineStr">
-        <is>
-          <t>Sustainary</t>
-        </is>
-      </c>
-      <c r="E91" s="536" t="inlineStr">
-        <is>
-          <t>The role of research and innovation in Reform and Cohesion policies</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="536" t="inlineStr">
-        <is>
-          <t>Carole Mancel-Blanchard</t>
-        </is>
-      </c>
-      <c r="B92" s="533" t="inlineStr">
-        <is>
-          <t>04/03/2020</t>
-        </is>
-      </c>
-      <c r="C92" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D92" s="536" t="inlineStr">
-        <is>
-          <t>Cámara Oficial de Comercio, Industria, Servicios y Navegación de España</t>
-        </is>
-      </c>
-      <c r="E92" s="536" t="inlineStr">
-        <is>
-          <t>Simplification of Cohesion Policy</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="536" t="inlineStr">
+      <c r="B101" s="543" t="inlineStr">
+        <is>
+          <t>11/02/2020</t>
+        </is>
+      </c>
+      <c r="C101" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D101" s="546" t="inlineStr">
+        <is>
+          <t>European Association of Research and Technology Organisations</t>
+        </is>
+      </c>
+      <c r="E101" s="546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Research/Innovation - Reform policies </t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="546" t="inlineStr">
+        <is>
+          <t>Hugo Monteiro Brilhante Sobral</t>
+        </is>
+      </c>
+      <c r="B102" s="543" t="inlineStr">
+        <is>
+          <t>07/02/2020</t>
+        </is>
+      </c>
+      <c r="C102" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D102" s="546" t="inlineStr">
+        <is>
+          <t>EUROCHAMBRES – Association of European Chambers of Commerce and Industry</t>
+        </is>
+      </c>
+      <c r="E102" s="546" t="inlineStr">
+        <is>
+          <t>Green Deal</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="546" t="inlineStr">
+        <is>
+          <t>Marlene Madsen</t>
+        </is>
+      </c>
+      <c r="B103" s="543" t="inlineStr">
+        <is>
+          <t>06/02/2020</t>
+        </is>
+      </c>
+      <c r="C103" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D103" s="546" t="inlineStr">
+        <is>
+          <t>European Federation of Pharmaceutical Industries and Associations</t>
+        </is>
+      </c>
+      <c r="E103" s="546" t="inlineStr">
+        <is>
+          <t>Medical innovation &amp; Reform policies</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="546" t="inlineStr">
+        <is>
+          <t>Marlene Madsen</t>
+        </is>
+      </c>
+      <c r="B104" s="543" t="inlineStr">
+        <is>
+          <t>05/02/2020</t>
+        </is>
+      </c>
+      <c r="C104" s="546" t="inlineStr">
+        <is>
+          <t>Brussels, Belgium</t>
+        </is>
+      </c>
+      <c r="D104" s="546" t="inlineStr">
+        <is>
+          <t>Hertie School</t>
+        </is>
+      </c>
+      <c r="E104" s="546" t="inlineStr">
+        <is>
+          <t>Budgetary Instrument for Convergence and Competitiveness Meeting</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="546" t="inlineStr">
         <is>
           <t>Francisco Barros Castro</t>
         </is>
       </c>
-      <c r="B93" s="533" t="inlineStr">
-        <is>
-          <t>04/03/2020</t>
-        </is>
-      </c>
-      <c r="C93" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D93" s="536" t="inlineStr">
-        <is>
-          <t>Hope and Homes for Children, Lumos Foundation</t>
-        </is>
-      </c>
-      <c r="E93" s="536" t="inlineStr">
-        <is>
-          <t>Discussion on how best to ensure that the new European Commission delivers on children’s right to family life</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="536" t="inlineStr">
-        <is>
-          <t>Carole Mancel-Blanchard</t>
-        </is>
-      </c>
-      <c r="B94" s="533" t="inlineStr">
-        <is>
-          <t>25/02/2020</t>
-        </is>
-      </c>
-      <c r="C94" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D94" s="536" t="inlineStr">
-        <is>
-          <t>European Metropolitan Authorities</t>
-        </is>
-      </c>
-      <c r="E94" s="536" t="inlineStr">
-        <is>
-          <t>Metropolitan areas and delivery of the EU agenda</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="536" t="inlineStr">
+      <c r="B105" s="543" t="inlineStr">
+        <is>
+          <t>05/02/2020</t>
+        </is>
+      </c>
+      <c r="C105" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D105" s="546" t="inlineStr">
+        <is>
+          <t>Energy Cities</t>
+        </is>
+      </c>
+      <c r="E105" s="546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Climate change, Just Transition Fund </t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="546" t="inlineStr">
+        <is>
+          <t>Marlene Madsen</t>
+        </is>
+      </c>
+      <c r="B106" s="543" t="inlineStr">
+        <is>
+          <t>04/02/2020</t>
+        </is>
+      </c>
+      <c r="C106" s="546" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brussels </t>
+        </is>
+      </c>
+      <c r="D106" s="546" t="inlineStr">
+        <is>
+          <t>WWF European Policy Programme</t>
+        </is>
+      </c>
+      <c r="E106" s="546" t="inlineStr">
+        <is>
+          <t>Just transition mechanism and technical support</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="546" t="inlineStr">
         <is>
           <t>Francisco Barros Castro</t>
         </is>
       </c>
-      <c r="B95" s="533" t="inlineStr">
-        <is>
-          <t>20/02/2020</t>
-        </is>
-      </c>
-      <c r="C95" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D95" s="536" t="inlineStr">
-        <is>
-          <t>EUROPEAN TRADE UNION CONFEDERATION</t>
-        </is>
-      </c>
-      <c r="E95" s="536" t="inlineStr">
-        <is>
-          <t>MFF and Cohesion policy negotiations, Just Transition Mechanism</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="536" t="inlineStr">
+      <c r="B107" s="543" t="inlineStr">
+        <is>
+          <t>17/01/2020</t>
+        </is>
+      </c>
+      <c r="C107" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D107" s="546" t="inlineStr">
+        <is>
+          <t>Advanced fuel Solutions</t>
+        </is>
+      </c>
+      <c r="E107" s="546" t="inlineStr">
+        <is>
+          <t>The importance of Torrefied Biomass and Forestry for the Energy Transition at a global scale</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="546" t="inlineStr">
         <is>
           <t>Francisco Barros Castro</t>
         </is>
       </c>
-      <c r="B96" s="533" t="inlineStr">
-        <is>
-          <t>17/02/2020</t>
-        </is>
-      </c>
-      <c r="C96" s="536" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brussels </t>
-        </is>
-      </c>
-      <c r="D96" s="536" t="inlineStr">
-        <is>
-          <t>CIP - Confederação Empresarial de Portugal</t>
-        </is>
-      </c>
-      <c r="E96" s="536" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An exchange mostly regarding Cohesion Policy </t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="536" t="inlineStr">
+      <c r="B108" s="543" t="inlineStr">
+        <is>
+          <t>16/01/2020</t>
+        </is>
+      </c>
+      <c r="C108" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D108" s="546" t="inlineStr">
+        <is>
+          <t>PGE Polska Grupa Energetyczna SA</t>
+        </is>
+      </c>
+      <c r="E108" s="546" t="inlineStr">
+        <is>
+          <t>Preparatory meeting PGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="546" t="inlineStr">
         <is>
           <t>Francisco Barros Castro</t>
         </is>
       </c>
-      <c r="B97" s="533" t="inlineStr">
-        <is>
-          <t>12/02/2020</t>
-        </is>
-      </c>
-      <c r="C97" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D97" s="536" t="inlineStr">
-        <is>
-          <t>Bundesverband der Deutschen Tourismuswirtschaft e. V.</t>
-        </is>
-      </c>
-      <c r="E97" s="536" t="inlineStr">
-        <is>
-          <t>Discuss important topics in tourism</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="536" t="inlineStr">
-        <is>
-          <t>Marlene Madsen</t>
-        </is>
-      </c>
-      <c r="B98" s="533" t="inlineStr">
-        <is>
-          <t>11/02/2020</t>
-        </is>
-      </c>
-      <c r="C98" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D98" s="536" t="inlineStr">
-        <is>
-          <t>European Association of Research and Technology Organisations</t>
-        </is>
-      </c>
-      <c r="E98" s="536" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Research/Innovation - Reform policies </t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="536" t="inlineStr">
-        <is>
-          <t>Francisco Barros Castro</t>
-        </is>
-      </c>
-      <c r="B99" s="533" t="inlineStr">
-        <is>
-          <t>11/02/2020</t>
-        </is>
-      </c>
-      <c r="C99" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D99" s="536" t="inlineStr">
-        <is>
-          <t>EDP - Energias de Portugal, SA</t>
-        </is>
-      </c>
-      <c r="E99" s="536" t="inlineStr">
-        <is>
-          <t>Talk about the activity of EDP in Brussels</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="536" t="inlineStr">
-        <is>
-          <t>Hugo Monteiro Brilhante Sobral</t>
-        </is>
-      </c>
-      <c r="B100" s="533" t="inlineStr">
-        <is>
-          <t>07/02/2020</t>
-        </is>
-      </c>
-      <c r="C100" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D100" s="536" t="inlineStr">
-        <is>
-          <t>EUROCHAMBRES – Association of European Chambers of Commerce and Industry</t>
-        </is>
-      </c>
-      <c r="E100" s="536" t="inlineStr">
-        <is>
-          <t>Green Deal</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="536" t="inlineStr">
-        <is>
-          <t>Marlene Madsen</t>
-        </is>
-      </c>
-      <c r="B101" s="533" t="inlineStr">
-        <is>
-          <t>06/02/2020</t>
-        </is>
-      </c>
-      <c r="C101" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D101" s="536" t="inlineStr">
-        <is>
-          <t>European Federation of Pharmaceutical Industries and Associations</t>
-        </is>
-      </c>
-      <c r="E101" s="536" t="inlineStr">
-        <is>
-          <t>Medical innovation &amp; Reform policies</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="536" t="inlineStr">
-        <is>
-          <t>Marlene Madsen</t>
-        </is>
-      </c>
-      <c r="B102" s="533" t="inlineStr">
-        <is>
-          <t>05/02/2020</t>
-        </is>
-      </c>
-      <c r="C102" s="536" t="inlineStr">
-        <is>
-          <t>Brussels, Belgium</t>
-        </is>
-      </c>
-      <c r="D102" s="536" t="inlineStr">
-        <is>
-          <t>Hertie School</t>
-        </is>
-      </c>
-      <c r="E102" s="536" t="inlineStr">
-        <is>
-          <t>Budgetary Instrument for Convergence and Competitiveness Meeting</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="536" t="inlineStr">
-        <is>
-          <t>Francisco Barros Castro</t>
-        </is>
-      </c>
-      <c r="B103" s="533" t="inlineStr">
-        <is>
-          <t>05/02/2020</t>
-        </is>
-      </c>
-      <c r="C103" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D103" s="536" t="inlineStr">
-        <is>
-          <t>Energy Cities</t>
-        </is>
-      </c>
-      <c r="E103" s="536" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Climate change, Just Transition Fund </t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="536" t="inlineStr">
-        <is>
-          <t>Marlene Madsen</t>
-        </is>
-      </c>
-      <c r="B104" s="533" t="inlineStr">
-        <is>
-          <t>04/02/2020</t>
-        </is>
-      </c>
-      <c r="C104" s="536" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brussels </t>
-        </is>
-      </c>
-      <c r="D104" s="536" t="inlineStr">
-        <is>
-          <t>WWF European Policy Programme</t>
-        </is>
-      </c>
-      <c r="E104" s="536" t="inlineStr">
-        <is>
-          <t>Just transition mechanism and technical support</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="536" t="inlineStr">
-        <is>
-          <t>Francisco Barros Castro</t>
-        </is>
-      </c>
-      <c r="B105" s="533" t="inlineStr">
-        <is>
-          <t>17/01/2020</t>
-        </is>
-      </c>
-      <c r="C105" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D105" s="536" t="inlineStr">
-        <is>
-          <t>Advanced fuel Solutions</t>
-        </is>
-      </c>
-      <c r="E105" s="536" t="inlineStr">
-        <is>
-          <t>The importance of Torrefied Biomass and Forestry for the Energy Transition at a global scale</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="536" t="inlineStr">
-        <is>
-          <t>Francisco Barros Castro</t>
-        </is>
-      </c>
-      <c r="B106" s="533" t="inlineStr">
-        <is>
-          <t>16/01/2020</t>
-        </is>
-      </c>
-      <c r="C106" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D106" s="536" t="inlineStr">
-        <is>
-          <t>PGE Polska Grupa Energetyczna SA</t>
-        </is>
-      </c>
-      <c r="E106" s="536" t="inlineStr">
-        <is>
-          <t>Preparatory meeting PGE</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="536" t="inlineStr">
-        <is>
-          <t>Francisco Barros Castro</t>
-        </is>
-      </c>
-      <c r="B107" s="533" t="inlineStr">
+      <c r="B109" s="543" t="inlineStr">
         <is>
           <t>14/01/2020</t>
         </is>
       </c>
-      <c r="C107" s="536" t="inlineStr">
-        <is>
-          <t>Brussels</t>
-        </is>
-      </c>
-      <c r="D107" s="536" t="inlineStr">
+      <c r="C109" s="546" t="inlineStr">
+        <is>
+          <t>Brussels</t>
+        </is>
+      </c>
+      <c r="D109" s="546" t="inlineStr">
         <is>
           <t>Galp Energia, SGPS, SA</t>
         </is>
       </c>
-      <c r="E107" s="536" t="inlineStr">
+      <c r="E109" s="546" t="inlineStr">
         <is>
           <t>the Green Deal, the Just Transition Mechanism and the climate neutrality</t>
         </is>
